--- a/table_nxn.xlsx
+++ b/table_nxn.xlsx
@@ -423,35 +423,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
